--- a/data-raw/metadata/feather_trap_metadata.xlsx
+++ b/data-raw/metadata/feather_trap_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A53F9F9-611A-BD46-B421-61E24A078F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADF9BFC-5DFF-EB4B-8C44-6E86D951D830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="-21100" windowWidth="31680" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,13 +97,7 @@
     <t>siteName</t>
   </si>
   <si>
-    <t>Name of the sampling site</t>
-  </si>
-  <si>
     <t>subSiteName</t>
-  </si>
-  <si>
-    <t>Position of trap within the site</t>
   </si>
   <si>
     <t>visitTime</t>
@@ -127,13 +121,7 @@
     <t>fishProcessed</t>
   </si>
   <si>
-    <t>Describing if fish processed during trap visit</t>
-  </si>
-  <si>
     <t>trapFunctioning</t>
-  </si>
-  <si>
-    <t>Code for description of how well trap is functioning when visit to trap began</t>
   </si>
   <si>
     <t>counterAtEnd</t>
@@ -167,9 +155,6 @@
   </si>
   <si>
     <t>includeCatch</t>
-  </si>
-  <si>
-    <t>Code for whether this record is considered of high enough quality to include in analysis</t>
   </si>
   <si>
     <t>discharge</t>
@@ -215,6 +200,21 @@
   </si>
   <si>
     <t>attribute_name</t>
+  </si>
+  <si>
+    <t>Name of the sampling site. Levels = c("Eye Riffle", "Live Oak", "Herringer Riffle", "Steep Riffle", "Sunset Pumps", "Shawn's Beach", "Gateway Riffle")</t>
+  </si>
+  <si>
+    <t>Position of trap within the site. Levels = c("Eye riffle_north", "Live Oak", "Herringer_west”,” Herringer_east”, "Eye riffle_Side Channel”, “#Steep Riffle_RST”, “Sunset West bank”, "Sunset East bank”,” Shawns_west", "Shawns_east”, “Gateway_main1”, “Herringer_Upper_west”, “Steep Riffle_10' ext”, “Gateway Main 400' Up River”, “Gateway_Rootball”, “Steep Side Channel", “Gateway_Rootball_River_Left")</t>
+  </si>
+  <si>
+    <t>Describing if fish processed during trap visit. Levels = c("Not applicable", "Processed fish", "No fish were caught", "No catch data; fish released", "No catch data; fish left in live box")</t>
+  </si>
+  <si>
+    <t>Code for description of how well trap is functioning when visit to trap began. Levels = c("Trap not in service", "Not recorded", "Trap functioning normally", "Trap stopped functioning", "Trap functioning, but not normally")</t>
+  </si>
+  <si>
+    <t>Code for whether this record is considered of high enough quality to include in analysis. Levels = c("Yes", "No")</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
   <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -698,26 +698,26 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="2"/>
       <c r="J4" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="11"/>
@@ -741,7 +741,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -776,10 +776,10 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -852,10 +852,10 @@
     </row>
     <row r="8" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -890,10 +890,10 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
@@ -928,28 +928,28 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
@@ -972,28 +972,28 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
@@ -1016,28 +1016,28 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
@@ -1060,10 +1060,10 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>15</v>
@@ -1098,28 +1098,28 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
@@ -1142,28 +1142,28 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
@@ -1186,28 +1186,28 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="3"/>
@@ -1230,28 +1230,28 @@
     </row>
     <row r="17" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -28950,13 +28950,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>

--- a/data-raw/metadata/feather_trap_metadata.xlsx
+++ b/data-raw/metadata/feather_trap_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADF9BFC-5DFF-EB4B-8C44-6E86D951D830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2728551-8D2D-A34E-B6ED-60E6BF8F54B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="-21100" windowWidth="31680" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,19 +160,10 @@
     <t>discharge</t>
   </si>
   <si>
-    <t>Dischage measured at trap</t>
-  </si>
-  <si>
-    <t>cubic feet per second</t>
-  </si>
-  <si>
     <t>waterVel</t>
   </si>
   <si>
     <t>Water velocity measured at trap</t>
-  </si>
-  <si>
-    <t>feet per second</t>
   </si>
   <si>
     <t>waterTemp</t>
@@ -215,6 +206,15 @@
   </si>
   <si>
     <t>Code for whether this record is considered of high enough quality to include in analysis. Levels = c("Yes", "No")</t>
+  </si>
+  <si>
+    <t>Discharge measured at trap</t>
+  </si>
+  <si>
+    <t>cubicFeetPerSecond</t>
+  </si>
+  <si>
+    <t>feetPerSecond</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
   <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -741,7 +741,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -779,7 +779,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
@@ -855,7 +855,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -893,7 +893,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
@@ -1063,7 +1063,7 @@
         <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>15</v>
@@ -1101,7 +1101,7 @@
         <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>34</v>
@@ -1116,7 +1116,7 @@
         <v>34</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>37</v>
@@ -1142,10 +1142,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>34</v>
@@ -1160,7 +1160,7 @@
         <v>34</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>37</v>
@@ -1186,10 +1186,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>34</v>
@@ -1204,7 +1204,7 @@
         <v>34</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>37</v>
@@ -1230,10 +1230,10 @@
     </row>
     <row r="17" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>34</v>
@@ -1248,7 +1248,7 @@
         <v>34</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>37</v>
@@ -28950,13 +28950,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>

--- a/data-raw/metadata/feather_trap_metadata.xlsx
+++ b/data-raw/metadata/feather_trap_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2728551-8D2D-A34E-B6ED-60E6BF8F54B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA702FA7-94F6-F742-AF66-6AF4CDEB5802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="-21100" windowWidth="31680" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,6 +221,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -287,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -328,6 +331,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -562,7 +568,8 @@
     <col min="9" max="9" width="14.1640625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="17.6640625" customWidth="1"/>
-    <col min="12" max="13" width="9.1640625" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="26" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -720,8 +727,12 @@
         <v>27</v>
       </c>
       <c r="K4" s="10"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="3"/>
+      <c r="L4" s="20">
+        <v>36516.444444444445</v>
+      </c>
+      <c r="M4" s="20">
+        <v>44873.382465277777</v>
+      </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -954,8 +965,12 @@
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>35500</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -998,8 +1013,12 @@
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1777</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1042,8 +1061,12 @@
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>6317</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1124,8 +1147,12 @@
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="L14" s="3">
+        <v>2</v>
+      </c>
+      <c r="M14" s="3">
+        <v>65791</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1168,8 +1195,12 @@
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3">
+        <v>5.3</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1212,8 +1243,12 @@
       <c r="I16" s="2"/>
       <c r="J16" s="3"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>24</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1247,17 +1282,21 @@
       <c r="F17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="3" t="s">
         <v>51</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>82.5</v>
+      </c>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
@@ -1276,16 +1315,16 @@
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
@@ -28914,16 +28953,16 @@
     <mergeCell ref="A43:A44"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E19:E1004 E1:E7 E8:E17" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E19:E1004 E1:E17" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F19:F1004 G7:H7 F1:F17" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G7:H7 F1:F1004" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C19:C49 C61:C1004 C1:C7 C8:C17" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C19:C49 C61:C1004 C1:C17" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H19:H1004 H1:H6 H8:H17" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H6 H8:H1004" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data-raw/metadata/feather_trap_metadata.xlsx
+++ b/data-raw/metadata/feather_trap_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA702FA7-94F6-F742-AF66-6AF4CDEB5802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAF2841-2C72-5A45-BF36-DE617EE72529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="-21100" windowWidth="31680" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6020" yWindow="-18080" windowWidth="31680" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>nominal</t>
-  </si>
-  <si>
-    <t>enumerated</t>
   </si>
   <si>
     <t>trapVisitID</t>
@@ -216,6 +213,12 @@
   <si>
     <t>feetPerSecond</t>
   </si>
+  <si>
+    <t>enumerated</t>
+  </si>
+  <si>
+    <t>Feather River RST program</t>
+  </si>
 </sst>
 </file>
 
@@ -224,7 +227,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -246,6 +249,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -290,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -329,11 +339,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -635,13 +646,13 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -667,19 +678,19 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -705,32 +716,32 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="2"/>
       <c r="J4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="10"/>
-      <c r="L4" s="20">
+      <c r="L4" s="18">
         <v>36516.444444444445</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="18">
         <v>44873.382465277777</v>
       </c>
       <c r="N4" s="1"/>
@@ -749,19 +760,19 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -787,19 +798,19 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -825,19 +836,19 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -863,19 +874,19 @@
     </row>
     <row r="8" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -901,19 +912,19 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -939,28 +950,28 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>20</v>
+      <c r="F10" s="3" t="s">
+        <v>33</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="G10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
@@ -987,28 +998,28 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
@@ -1035,28 +1046,28 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="H12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
@@ -1083,19 +1094,19 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1121,28 +1132,28 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
@@ -1169,28 +1180,28 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>45</v>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
@@ -1217,28 +1228,28 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="H16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="3"/>
@@ -1265,28 +1276,28 @@
     </row>
     <row r="17" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="H17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="3"/>
@@ -1956,7 +1967,7 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -1984,7 +1995,7 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
@@ -2012,7 +2023,7 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
@@ -2040,7 +2051,7 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="2"/>
@@ -28975,8 +28986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28989,13 +29000,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>54</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
@@ -29022,9 +29033,15 @@
       <c r="Z1" s="16"/>
     </row>
     <row r="2" spans="1:26" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="14"/>
+      <c r="A2" s="21">
+        <v>2</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>

--- a/data-raw/metadata/feather_trap_metadata.xlsx
+++ b/data-raw/metadata/feather_trap_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAF2841-2C72-5A45-BF36-DE617EE72529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D9C08A-3EE6-3145-B308-E6E2C4912DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6020" yWindow="-18080" windowWidth="31680" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33560" yWindow="-21100" windowWidth="31680" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -342,9 +342,9 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -742,7 +742,7 @@
         <v>36516.444444444445</v>
       </c>
       <c r="M4" s="18">
-        <v>44873.382465277777</v>
+        <v>44902.361516203702</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1967,7 +1967,7 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -1995,7 +1995,7 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
@@ -2023,7 +2023,7 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
@@ -2051,7 +2051,7 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="2"/>
@@ -28986,7 +28986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -29033,13 +29033,13 @@
       <c r="Z1" s="16"/>
     </row>
     <row r="2" spans="1:26" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21">
+      <c r="A2" s="19">
         <v>2</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="16"/>

--- a/data-raw/metadata/feather_trap_metadata.xlsx
+++ b/data-raw/metadata/feather_trap_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D9C08A-3EE6-3145-B308-E6E2C4912DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A99B591-BD6E-DF4C-A2CF-09044AD0CF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33560" yWindow="-21100" windowWidth="31680" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -157,12 +157,6 @@
     <t>discharge</t>
   </si>
   <si>
-    <t>waterVel</t>
-  </si>
-  <si>
-    <t>Water velocity measured at trap</t>
-  </si>
-  <si>
     <t>waterTemp</t>
   </si>
   <si>
@@ -209,9 +203,6 @@
   </si>
   <si>
     <t>cubicFeetPerSecond</t>
-  </si>
-  <si>
-    <t>feetPerSecond</t>
   </si>
   <si>
     <t>enumerated</t>
@@ -560,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1004"/>
+  <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -652,7 +643,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -763,7 +754,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -801,7 +792,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
@@ -877,7 +868,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -915,7 +906,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
@@ -1097,7 +1088,7 @@
         <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>15</v>
@@ -1135,7 +1126,7 @@
         <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>33</v>
@@ -1150,7 +1141,7 @@
         <v>33</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>36</v>
@@ -1198,7 +1189,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>36</v>
@@ -1207,10 +1198,10 @@
       <c r="J15" s="3"/>
       <c r="K15" s="2"/>
       <c r="L15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>5.3</v>
+        <v>24</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1226,12 +1217,12 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>45</v>
+    <row r="16" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>46</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>46</v>
+      <c r="B16" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>33</v>
@@ -1246,7 +1237,7 @@
         <v>33</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>36</v>
@@ -1258,56 +1249,36 @@
         <v>0</v>
       </c>
       <c r="M16" s="3">
-        <v>24</v>
+        <v>82.5</v>
       </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
     </row>
     <row r="17" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="2"/>
       <c r="J17" s="3"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>82.5</v>
-      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
@@ -1322,12 +1293,12 @@
       <c r="Y17" s="13"/>
       <c r="Z17" s="13"/>
     </row>
-    <row r="18" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="13"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1336,19 +1307,19 @@
       <c r="K18" s="2"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
@@ -1939,7 +1910,7 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
@@ -1967,7 +1938,7 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -1995,7 +1966,7 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
@@ -2023,7 +1994,7 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="20"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
@@ -2051,7 +2022,7 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
+      <c r="A44" s="4"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="2"/>
@@ -3003,7 +2974,7 @@
       <c r="Z77" s="1"/>
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="4"/>
+      <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="2"/>
@@ -28930,50 +28901,22 @@
       <c r="Y1003" s="1"/>
       <c r="Z1003" s="1"/>
     </row>
-    <row r="1004" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1004" s="1"/>
-      <c r="B1004" s="1"/>
-      <c r="C1004" s="1"/>
-      <c r="D1004" s="2"/>
-      <c r="E1004" s="1"/>
-      <c r="F1004" s="3"/>
-      <c r="G1004" s="3"/>
-      <c r="H1004" s="3"/>
-      <c r="I1004" s="2"/>
-      <c r="J1004" s="3"/>
-      <c r="K1004" s="2"/>
-      <c r="L1004" s="3"/>
-      <c r="M1004" s="3"/>
-      <c r="N1004" s="1"/>
-      <c r="O1004" s="1"/>
-      <c r="P1004" s="1"/>
-      <c r="Q1004" s="1"/>
-      <c r="R1004" s="1"/>
-      <c r="S1004" s="1"/>
-      <c r="T1004" s="1"/>
-      <c r="U1004" s="1"/>
-      <c r="V1004" s="1"/>
-      <c r="W1004" s="1"/>
-      <c r="X1004" s="1"/>
-      <c r="Y1004" s="1"/>
-      <c r="Z1004" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E19:E1004 E1:E17" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E18:E1003 E1:E16" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G7:H7 F1:F1004" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G7:H7 F1:F1003" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C19:C49 C61:C1004 C1:C17" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C18:C48 C60:C1003 C1:C16" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H6 H8:H1004" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H6 H8:H1003" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
@@ -29000,13 +28943,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
@@ -29037,7 +28980,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>13</v>

--- a/data-raw/metadata/feather_trap_metadata.xlsx
+++ b/data-raw/metadata/feather_trap_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A99B591-BD6E-DF4C-A2CF-09044AD0CF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54142B05-DF3C-7E4E-A08E-E45AFE63656D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -570,8 +570,7 @@
     <col min="9" max="9" width="14.1640625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="17.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="26" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -730,10 +729,10 @@
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="18">
-        <v>36516.444444444445</v>
+        <v>35786.444444444445</v>
       </c>
       <c r="M4" s="18">
-        <v>44902.361516203702</v>
+        <v>44990.427511574075</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -971,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>35500</v>
+        <v>51775</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>

--- a/data-raw/metadata/feather_trap_metadata.xlsx
+++ b/data-raw/metadata/feather_trap_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inigo\Projects\jpe-feather-edi\data-raw\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F1F3F9-1B8B-473D-80B1-37970C9B637E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53070385-600C-435D-B780-6F6AF5A9C011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -545,7 +545,7 @@
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
